--- a/Excel Demo/exceldemo-2.xlsx
+++ b/Excel Demo/exceldemo-2.xlsx
@@ -633,7 +633,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1079,7 +1079,7 @@
         <v>245</v>
       </c>
       <c r="J2">
-        <f>K2-H2</f>
+        <f t="shared" ref="J2:J31" si="0">K2-H2</f>
         <v>35342755</v>
       </c>
       <c r="K2">
@@ -1087,11 +1087,11 @@
         <v>35343000</v>
       </c>
       <c r="M2">
-        <f>K2/H2</f>
+        <f t="shared" ref="M2:M31" si="1">K2/H2</f>
         <v>144257.14285714287</v>
       </c>
       <c r="O2">
-        <f>MOD(K2,H2)</f>
+        <f t="shared" ref="O2:O31" si="2">MOD(K2,H2)</f>
         <v>35</v>
       </c>
       <c r="Q2">
@@ -1126,31 +1126,31 @@
         <v>17</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H31" si="0">C3+D3+E3+F3+G3</f>
+        <f t="shared" ref="H3:H31" si="3">C3+D3+E3+F3+G3</f>
         <v>220</v>
       </c>
       <c r="J3">
-        <f>K3-H3</f>
+        <f t="shared" si="0"/>
         <v>23882366</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K31" si="1">C3*D3*E3*F3*G3</f>
+        <f t="shared" ref="K3:K31" si="4">C3*D3*E3*F3*G3</f>
         <v>23882586</v>
       </c>
       <c r="M3">
-        <f>K3/H3</f>
+        <f t="shared" si="1"/>
         <v>108557.20909090909</v>
       </c>
       <c r="O3">
-        <f>MOD(K3,H3)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q31" si="2">H3*H3</f>
+        <f t="shared" ref="Q3:Q31" si="5">H3*H3</f>
         <v>48400</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S31" si="3">AVERAGE(C3:G3)</f>
+        <f t="shared" ref="S3:S31" si="6">AVERAGE(C3:G3)</f>
         <v>44</v>
       </c>
     </row>
@@ -1177,31 +1177,31 @@
         <v>17</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="J4">
-        <f>K4-H4</f>
+        <f t="shared" si="0"/>
         <v>35505580</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35505792</v>
       </c>
       <c r="M4">
-        <f>K4/H4</f>
+        <f t="shared" si="1"/>
         <v>167480.15094339623</v>
       </c>
       <c r="O4">
-        <f>MOD(K4,H4)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>44944</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>42.4</v>
       </c>
     </row>
@@ -1228,31 +1228,31 @@
         <v>17</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="J5">
-        <f>K5-H5</f>
+        <f t="shared" si="0"/>
         <v>47941388</v>
       </c>
       <c r="K5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>47941632</v>
       </c>
       <c r="M5">
-        <f>K5/H5</f>
+        <f t="shared" si="1"/>
         <v>196482.09836065574</v>
       </c>
       <c r="O5">
-        <f>MOD(K5,H5)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>59536</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48.8</v>
       </c>
     </row>
@@ -1279,31 +1279,31 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="J6">
-        <f>K6-H6</f>
+        <f t="shared" si="0"/>
         <v>49303240</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49303485</v>
       </c>
       <c r="M6">
-        <f>K6/H6</f>
+        <f t="shared" si="1"/>
         <v>201238.71428571429</v>
       </c>
       <c r="O6">
-        <f>MOD(K6,H6)</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60025</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
@@ -1330,31 +1330,31 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="J7">
-        <f>K7-H7</f>
+        <f t="shared" si="0"/>
         <v>10707639</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10707840</v>
       </c>
       <c r="M7">
-        <f>K7/H7</f>
+        <f t="shared" si="1"/>
         <v>53272.835820895525</v>
       </c>
       <c r="O7">
-        <f>MOD(K7,H7)</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40401</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40.200000000000003</v>
       </c>
     </row>
@@ -1381,31 +1381,31 @@
         <v>23</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="J8">
-        <f>K8-H8</f>
+        <f t="shared" si="0"/>
         <v>75000324</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>75000562</v>
       </c>
       <c r="M8">
-        <f>K8/H8</f>
+        <f t="shared" si="1"/>
         <v>315128.4117647059</v>
       </c>
       <c r="O8">
-        <f>MOD(K8,H8)</f>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>56644</v>
       </c>
       <c r="S8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47.6</v>
       </c>
     </row>
@@ -1432,31 +1432,31 @@
         <v>26</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="J9">
-        <f>K9-H9</f>
+        <f t="shared" si="0"/>
         <v>117667012</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>117667264</v>
       </c>
       <c r="M9">
-        <f>K9/H9</f>
+        <f t="shared" si="1"/>
         <v>466933.58730158728</v>
       </c>
       <c r="O9">
-        <f>MOD(K9,H9)</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>63504</v>
       </c>
       <c r="S9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50.4</v>
       </c>
     </row>
@@ -1483,31 +1483,31 @@
         <v>30</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>296</v>
       </c>
       <c r="J10">
-        <f>K10-H10</f>
+        <f t="shared" si="0"/>
         <v>359099704</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>359100000</v>
       </c>
       <c r="M10">
-        <f>K10/H10</f>
+        <f t="shared" si="1"/>
         <v>1213175.6756756757</v>
       </c>
       <c r="O10">
-        <f>MOD(K10,H10)</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>87616</v>
       </c>
       <c r="S10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59.2</v>
       </c>
     </row>
@@ -1534,31 +1534,31 @@
         <v>22</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="J11">
-        <f>K11-H11</f>
+        <f t="shared" si="0"/>
         <v>103910160</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>103910400</v>
       </c>
       <c r="M11">
-        <f>K11/H11</f>
+        <f t="shared" si="1"/>
         <v>432960</v>
       </c>
       <c r="O11">
-        <f>MOD(K11,H11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>57600</v>
       </c>
       <c r="S11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
@@ -1585,31 +1585,31 @@
         <v>24</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="J12">
-        <f>K12-H12</f>
+        <f t="shared" si="0"/>
         <v>103631365</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>103631616</v>
       </c>
       <c r="M12">
-        <f>K12/H12</f>
+        <f t="shared" si="1"/>
         <v>412874.96414342627</v>
       </c>
       <c r="O12">
-        <f>MOD(K12,H12)</f>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>63001</v>
       </c>
       <c r="S12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50.2</v>
       </c>
     </row>
@@ -1636,31 +1636,31 @@
         <v>19</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="J13">
-        <f>K13-H13</f>
+        <f t="shared" si="0"/>
         <v>29825618</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29825820</v>
       </c>
       <c r="M13">
-        <f>K13/H13</f>
+        <f t="shared" si="1"/>
         <v>147652.57425742573</v>
       </c>
       <c r="O13">
-        <f>MOD(K13,H13)</f>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40804</v>
       </c>
       <c r="S13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40.4</v>
       </c>
     </row>
@@ -1687,31 +1687,31 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="J14">
-        <f>K14-H14</f>
+        <f t="shared" si="0"/>
         <v>13698211</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13698432</v>
       </c>
       <c r="M14">
-        <f>K14/H14</f>
+        <f t="shared" si="1"/>
         <v>61983.855203619911</v>
       </c>
       <c r="O14">
-        <f>MOD(K14,H14)</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48841</v>
       </c>
       <c r="S14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44.2</v>
       </c>
     </row>
@@ -1738,31 +1738,31 @@
         <v>25</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="J15">
-        <f>K15-H15</f>
+        <f t="shared" si="0"/>
         <v>110434243</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>110434500</v>
       </c>
       <c r="M15">
-        <f>K15/H15</f>
+        <f t="shared" si="1"/>
         <v>429706.22568093386</v>
       </c>
       <c r="O15">
-        <f>MOD(K15,H15)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>66049</v>
       </c>
       <c r="S15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51.4</v>
       </c>
     </row>
@@ -1789,31 +1789,31 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="J16">
-        <f>K16-H16</f>
+        <f t="shared" si="0"/>
         <v>31136168</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31136400</v>
       </c>
       <c r="M16">
-        <f>K16/H16</f>
+        <f t="shared" si="1"/>
         <v>134208.62068965516</v>
       </c>
       <c r="O16">
-        <f>MOD(K16,H16)</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>53824</v>
       </c>
       <c r="S16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>46.4</v>
       </c>
     </row>
@@ -1840,31 +1840,31 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="J17">
-        <f>K17-H17</f>
+        <f t="shared" si="0"/>
         <v>63112244</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63112500</v>
       </c>
       <c r="M17">
-        <f>K17/H17</f>
+        <f t="shared" si="1"/>
         <v>246533.203125</v>
       </c>
       <c r="O17">
-        <f>MOD(K17,H17)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>65536</v>
       </c>
       <c r="S17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51.2</v>
       </c>
     </row>
@@ -1891,31 +1891,31 @@
         <v>10</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="J18">
-        <f>K18-H18</f>
+        <f t="shared" si="0"/>
         <v>8067404</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8067600</v>
       </c>
       <c r="M18">
-        <f>K18/H18</f>
+        <f t="shared" si="1"/>
         <v>41161.224489795917</v>
       </c>
       <c r="O18">
-        <f>MOD(K18,H18)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>38416</v>
       </c>
       <c r="S18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.200000000000003</v>
       </c>
     </row>
@@ -1942,31 +1942,31 @@
         <v>31</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>274</v>
       </c>
       <c r="J19">
-        <f>K19-H19</f>
+        <f t="shared" si="0"/>
         <v>216950126</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>216950400</v>
       </c>
       <c r="M19">
-        <f>K19/H19</f>
+        <f t="shared" si="1"/>
         <v>791789.7810218978</v>
       </c>
       <c r="O19">
-        <f>MOD(K19,H19)</f>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>75076</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>54.8</v>
       </c>
     </row>
@@ -1993,31 +1993,31 @@
         <v>11</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
       <c r="J20">
-        <f>K20-H20</f>
+        <f t="shared" si="0"/>
         <v>5203257</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5203440</v>
       </c>
       <c r="M20">
-        <f>K20/H20</f>
+        <f t="shared" si="1"/>
         <v>28434.098360655738</v>
       </c>
       <c r="O20">
-        <f>MOD(K20,H20)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>33489</v>
       </c>
       <c r="S20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36.6</v>
       </c>
     </row>
@@ -2044,31 +2044,31 @@
         <v>33</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>284</v>
       </c>
       <c r="J21">
-        <f>K21-H21</f>
+        <f t="shared" si="0"/>
         <v>239600308</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>239600592</v>
       </c>
       <c r="M21">
-        <f>K21/H21</f>
+        <f t="shared" si="1"/>
         <v>843664.05633802817</v>
       </c>
       <c r="O21">
-        <f>MOD(K21,H21)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>80656</v>
       </c>
       <c r="S21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56.8</v>
       </c>
     </row>
@@ -2095,31 +2095,31 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="J22">
-        <f>K22-H22</f>
+        <f t="shared" si="0"/>
         <v>50111775</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50112000</v>
       </c>
       <c r="M22">
-        <f>K22/H22</f>
+        <f t="shared" si="1"/>
         <v>222720</v>
       </c>
       <c r="O22">
-        <f>MOD(K22,H22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>50625</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -2146,31 +2146,31 @@
         <v>50</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>322</v>
       </c>
       <c r="J23">
-        <f>K23-H23</f>
+        <f t="shared" si="0"/>
         <v>881099678</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>881100000</v>
       </c>
       <c r="M23">
-        <f>K23/H23</f>
+        <f t="shared" si="1"/>
         <v>2736335.4037267081</v>
       </c>
       <c r="O23">
-        <f>MOD(K23,H23)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>103684</v>
       </c>
       <c r="S23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -2197,31 +2197,31 @@
         <v>25</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>266</v>
       </c>
       <c r="J24">
-        <f>K24-H24</f>
+        <f t="shared" si="0"/>
         <v>138239734</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>138240000</v>
       </c>
       <c r="M24">
-        <f>K24/H24</f>
+        <f t="shared" si="1"/>
         <v>519699.24812030076</v>
       </c>
       <c r="O24">
-        <f>MOD(K24,H24)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>70756</v>
       </c>
       <c r="S24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.2</v>
       </c>
     </row>
@@ -2248,31 +2248,31 @@
         <v>42</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>296</v>
       </c>
       <c r="J25">
-        <f>K25-H25</f>
+        <f t="shared" si="0"/>
         <v>470634904</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>470635200</v>
       </c>
       <c r="M25">
-        <f>K25/H25</f>
+        <f t="shared" si="1"/>
         <v>1589983.7837837837</v>
       </c>
       <c r="O25">
-        <f>MOD(K25,H25)</f>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>87616</v>
       </c>
       <c r="S25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>59.2</v>
       </c>
     </row>
@@ -2299,31 +2299,31 @@
         <v>15</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="J26">
-        <f>K26-H26</f>
+        <f t="shared" si="0"/>
         <v>49661762</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49662000</v>
       </c>
       <c r="M26">
-        <f>K26/H26</f>
+        <f t="shared" si="1"/>
         <v>208663.8655462185</v>
       </c>
       <c r="O26">
-        <f>MOD(K26,H26)</f>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>56644</v>
       </c>
       <c r="S26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47.6</v>
       </c>
     </row>
@@ -2350,31 +2350,31 @@
         <v>40</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="J27">
-        <f>K27-H27</f>
+        <f t="shared" si="0"/>
         <v>550559690</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>550560000</v>
       </c>
       <c r="M27">
-        <f>K27/H27</f>
+        <f t="shared" si="1"/>
         <v>1776000</v>
       </c>
       <c r="O27">
-        <f>MOD(K27,H27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>96100</v>
       </c>
       <c r="S27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
     </row>
@@ -2401,31 +2401,31 @@
         <v>21</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="J28">
-        <f>K28-H28</f>
+        <f t="shared" si="0"/>
         <v>49082652</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>49082880</v>
       </c>
       <c r="M28">
-        <f>K28/H28</f>
+        <f t="shared" si="1"/>
         <v>215275.78947368421</v>
       </c>
       <c r="O28">
-        <f>MOD(K28,H28)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51984</v>
       </c>
       <c r="S28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45.6</v>
       </c>
     </row>
@@ -2452,31 +2452,31 @@
         <v>15</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="J29">
-        <f>K29-H29</f>
+        <f t="shared" si="0"/>
         <v>13727801</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13728000</v>
       </c>
       <c r="M29">
-        <f>K29/H29</f>
+        <f t="shared" si="1"/>
         <v>68984.924623115585</v>
       </c>
       <c r="O29">
-        <f>MOD(K29,H29)</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>39601</v>
       </c>
       <c r="S29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>39.799999999999997</v>
       </c>
     </row>
@@ -2503,31 +2503,31 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="J30">
-        <f>K30-H30</f>
+        <f t="shared" si="0"/>
         <v>10617422</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10617600</v>
       </c>
       <c r="M30">
-        <f>K30/H30</f>
+        <f t="shared" si="1"/>
         <v>59649.438202247191</v>
       </c>
       <c r="O30">
-        <f>MOD(K30,H30)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>31684</v>
       </c>
       <c r="S30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35.6</v>
       </c>
     </row>
@@ -2554,31 +2554,31 @@
         <v>19</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="J31">
-        <f>K31-H31</f>
+        <f t="shared" si="0"/>
         <v>50066694</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50066938</v>
       </c>
       <c r="M31">
-        <f>K31/H31</f>
+        <f t="shared" si="1"/>
         <v>205192.36885245901</v>
       </c>
       <c r="O31">
-        <f>MOD(K31,H31)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>59536</v>
       </c>
       <c r="S31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48.8</v>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="8">
-        <f>C2+D2+E2+F2+G2</f>
+        <f t="shared" ref="H2:H31" si="0">C2+D2+E2+F2+G2</f>
         <v>245</v>
       </c>
       <c r="I2" s="8">
@@ -2795,32 +2795,32 @@
         <v>17</v>
       </c>
       <c r="H3" s="8">
-        <f>C3+D3+E3+F3+G3</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3">
-        <f t="shared" ref="J3:J31" si="0">C3*D3*E3*F3*G3</f>
+        <f t="shared" ref="J3:J31" si="1">C3*D3*E3*F3*G3</f>
         <v>23882586</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L31" si="1">J3-H3</f>
+        <f t="shared" ref="L3:L31" si="2">J3-H3</f>
         <v>23882366</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N31" si="2">J3/H3</f>
+        <f t="shared" ref="N3:N31" si="3">J3/H3</f>
         <v>108557.20909090909</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P31" si="3">MOD(J3,H3)</f>
+        <f t="shared" ref="P3:P31" si="4">MOD(J3,H3)</f>
         <v>46</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q31" si="4">H3*H3</f>
+        <f t="shared" ref="Q3:Q31" si="5">H3*H3</f>
         <v>48400</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S31" si="5">H3/5</f>
+        <f t="shared" ref="S3:S31" si="6">H3/5</f>
         <v>44</v>
       </c>
       <c r="V3">
@@ -2851,32 +2851,32 @@
         <v>17</v>
       </c>
       <c r="H4" s="8">
-        <f>C4+D4+E4+F4+G4</f>
+        <f t="shared" si="0"/>
         <v>212</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35505792</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35505580</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167480.15094339623</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44944</v>
       </c>
       <c r="S4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.4</v>
       </c>
     </row>
@@ -2903,32 +2903,32 @@
         <v>17</v>
       </c>
       <c r="H5" s="8">
-        <f>C5+D5+E5+F5+G5</f>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47941632</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47941388</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196482.09836065574</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59536</v>
       </c>
       <c r="S5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48.8</v>
       </c>
     </row>
@@ -2955,32 +2955,32 @@
         <v>21</v>
       </c>
       <c r="H6" s="8">
-        <f>C6+D6+E6+F6+G6</f>
+        <f t="shared" si="0"/>
         <v>245</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49303485</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49303240</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201238.71428571429</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60025</v>
       </c>
       <c r="S6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
@@ -3007,32 +3007,32 @@
         <v>12</v>
       </c>
       <c r="H7" s="8">
-        <f>C7+D7+E7+F7+G7</f>
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10707840</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10707639</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53272.835820895525</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>168</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40401</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.200000000000003</v>
       </c>
     </row>
@@ -3059,32 +3059,32 @@
         <v>23</v>
       </c>
       <c r="H8" s="8">
-        <f>C8+D8+E8+F8+G8</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75000562</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75000324</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>315128.4117647059</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56644</v>
       </c>
       <c r="S8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47.6</v>
       </c>
     </row>
@@ -3111,32 +3111,32 @@
         <v>26</v>
       </c>
       <c r="H9" s="8">
-        <f>C9+D9+E9+F9+G9</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117667264</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117667012</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>466933.58730158728</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>148</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63504</v>
       </c>
       <c r="S9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.4</v>
       </c>
     </row>
@@ -3163,32 +3163,32 @@
         <v>30</v>
       </c>
       <c r="H10" s="8">
-        <f>C10+D10+E10+F10+G10</f>
+        <f t="shared" si="0"/>
         <v>296</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>359100000</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>359099704</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1213175.6756756757</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87616</v>
       </c>
       <c r="S10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.2</v>
       </c>
     </row>
@@ -3215,32 +3215,32 @@
         <v>22</v>
       </c>
       <c r="H11" s="8">
-        <f>C11+D11+E11+F11+G11</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103910400</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103910160</v>
       </c>
       <c r="N11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>432960</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57600</v>
       </c>
       <c r="S11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
     </row>
@@ -3267,32 +3267,32 @@
         <v>24</v>
       </c>
       <c r="H12" s="8">
-        <f>C12+D12+E12+F12+G12</f>
+        <f t="shared" si="0"/>
         <v>251</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103631616</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>103631365</v>
       </c>
       <c r="N12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>412874.96414342627</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63001</v>
       </c>
       <c r="S12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50.2</v>
       </c>
     </row>
@@ -3319,32 +3319,32 @@
         <v>19</v>
       </c>
       <c r="H13" s="8">
-        <f>C13+D13+E13+F13+G13</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29825820</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29825618</v>
       </c>
       <c r="N13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147652.57425742573</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40804</v>
       </c>
       <c r="S13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40.4</v>
       </c>
     </row>
@@ -3371,32 +3371,32 @@
         <v>12</v>
       </c>
       <c r="H14" s="8">
-        <f>C14+D14+E14+F14+G14</f>
+        <f t="shared" si="0"/>
         <v>221</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13698432</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13698211</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61983.855203619911</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48841</v>
       </c>
       <c r="S14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44.2</v>
       </c>
     </row>
@@ -3423,32 +3423,32 @@
         <v>25</v>
       </c>
       <c r="H15" s="8">
-        <f>C15+D15+E15+F15+G15</f>
+        <f t="shared" si="0"/>
         <v>257</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110434500</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110434243</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>429706.22568093386</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66049</v>
       </c>
       <c r="S15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51.4</v>
       </c>
     </row>
@@ -3475,32 +3475,32 @@
         <v>15</v>
       </c>
       <c r="H16" s="8">
-        <f>C16+D16+E16+F16+G16</f>
+        <f t="shared" si="0"/>
         <v>232</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31136400</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31136168</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134208.62068965516</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53824</v>
       </c>
       <c r="S16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46.4</v>
       </c>
     </row>
@@ -3527,32 +3527,32 @@
         <v>15</v>
       </c>
       <c r="H17" s="8">
-        <f>C17+D17+E17+F17+G17</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63112500</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63112244</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>246533.203125</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65536</v>
       </c>
       <c r="S17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51.2</v>
       </c>
     </row>
@@ -3579,32 +3579,32 @@
         <v>10</v>
       </c>
       <c r="H18" s="8">
-        <f>C18+D18+E18+F18+G18</f>
+        <f t="shared" si="0"/>
         <v>196</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8067600</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8067404</v>
       </c>
       <c r="N18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41161.224489795917</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38416</v>
       </c>
       <c r="S18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.200000000000003</v>
       </c>
     </row>
@@ -3631,32 +3631,32 @@
         <v>31</v>
       </c>
       <c r="H19" s="8">
-        <f>C19+D19+E19+F19+G19</f>
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>216950400</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>216950126</v>
       </c>
       <c r="N19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>791789.7810218978</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75076</v>
       </c>
       <c r="S19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.8</v>
       </c>
     </row>
@@ -3683,32 +3683,32 @@
         <v>11</v>
       </c>
       <c r="H20" s="8">
-        <f>C20+D20+E20+F20+G20</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5203440</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5203257</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28434.098360655738</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33489</v>
       </c>
       <c r="S20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36.6</v>
       </c>
     </row>
@@ -3735,32 +3735,32 @@
         <v>33</v>
       </c>
       <c r="H21" s="8">
-        <f>C21+D21+E21+F21+G21</f>
+        <f t="shared" si="0"/>
         <v>284</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>239600592</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>239600308</v>
       </c>
       <c r="N21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>843664.05633802817</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80656</v>
       </c>
       <c r="S21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.8</v>
       </c>
     </row>
@@ -3787,32 +3787,32 @@
         <v>20</v>
       </c>
       <c r="H22" s="8">
-        <f>C22+D22+E22+F22+G22</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50112000</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50111775</v>
       </c>
       <c r="N22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>222720</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50625</v>
       </c>
       <c r="S22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -3839,32 +3839,32 @@
         <v>50</v>
       </c>
       <c r="H23" s="8">
-        <f>C23+D23+E23+F23+G23</f>
+        <f t="shared" si="0"/>
         <v>322</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>881100000</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>881099678</v>
       </c>
       <c r="N23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2736335.4037267081</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103684</v>
       </c>
       <c r="S23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -3891,32 +3891,32 @@
         <v>25</v>
       </c>
       <c r="H24" s="8">
-        <f>C24+D24+E24+F24+G24</f>
+        <f t="shared" si="0"/>
         <v>266</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>138240000</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138239734</v>
       </c>
       <c r="N24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>519699.24812030076</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70756</v>
       </c>
       <c r="S24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.2</v>
       </c>
     </row>
@@ -3943,32 +3943,32 @@
         <v>42</v>
       </c>
       <c r="H25" s="8">
-        <f>C25+D25+E25+F25+G25</f>
+        <f t="shared" si="0"/>
         <v>296</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>470635200</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>470634904</v>
       </c>
       <c r="N25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1589983.7837837837</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>232</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87616</v>
       </c>
       <c r="S25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.2</v>
       </c>
     </row>
@@ -3995,32 +3995,32 @@
         <v>15</v>
       </c>
       <c r="H26" s="8">
-        <f>C26+D26+E26+F26+G26</f>
+        <f t="shared" si="0"/>
         <v>238</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49662000</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49661762</v>
       </c>
       <c r="N26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>208663.8655462185</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>206</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56644</v>
       </c>
       <c r="S26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>47.6</v>
       </c>
     </row>
@@ -4047,32 +4047,32 @@
         <v>40</v>
       </c>
       <c r="H27" s="8">
-        <f>C27+D27+E27+F27+G27</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>550560000</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>550559690</v>
       </c>
       <c r="N27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1776000</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96100</v>
       </c>
       <c r="S27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
     </row>
@@ -4099,32 +4099,32 @@
         <v>21</v>
       </c>
       <c r="H28" s="8">
-        <f>C28+D28+E28+F28+G28</f>
+        <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49082880</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49082652</v>
       </c>
       <c r="N28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>215275.78947368421</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51984</v>
       </c>
       <c r="S28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45.6</v>
       </c>
     </row>
@@ -4151,32 +4151,32 @@
         <v>15</v>
       </c>
       <c r="H29" s="8">
-        <f>C29+D29+E29+F29+G29</f>
+        <f t="shared" si="0"/>
         <v>199</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13728000</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13727801</v>
       </c>
       <c r="N29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68984.924623115585</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39601</v>
       </c>
       <c r="S29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39.799999999999997</v>
       </c>
     </row>
@@ -4203,32 +4203,32 @@
         <v>8</v>
       </c>
       <c r="H30" s="8">
-        <f>C30+D30+E30+F30+G30</f>
+        <f t="shared" si="0"/>
         <v>178</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10617600</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10617422</v>
       </c>
       <c r="N30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59649.438202247191</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31684</v>
       </c>
       <c r="S30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.6</v>
       </c>
     </row>
@@ -4255,32 +4255,32 @@
         <v>19</v>
       </c>
       <c r="H31" s="8">
-        <f>C31+D31+E31+F31+G31</f>
+        <f t="shared" si="0"/>
         <v>244</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50066938</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50066694</v>
       </c>
       <c r="N31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>205192.36885245901</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59536</v>
       </c>
       <c r="S31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48.8</v>
       </c>
     </row>
